--- a/notebooks/evaluation/main_table/tables/cvrp50.xlsx
+++ b/notebooks/evaluation/main_table/tables/cvrp50.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1916,7 +1916,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>am-cvrp50</t>
+          <t>am-critic-cvrp50</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1926,19 +1926,19 @@
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>5.297597497701645</v>
+        <v>7.090935111045837</v>
       </c>
       <c r="E58" t="n">
-        <v>10.95026302337646</v>
+        <v>11.16338157653809</v>
       </c>
       <c r="F58" t="n">
-        <v>813.77587890625</v>
+        <v>798.3749389648438</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>am-cvrp50</t>
+          <t>am-critic-cvrp50</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1948,95 +1948,95 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4.307813197374344</v>
+        <v>2.488699741661549</v>
       </c>
       <c r="E59" t="n">
-        <v>10.8354549407959</v>
+        <v>10.63325595855713</v>
       </c>
       <c r="F59" t="n">
-        <v>1144.919189453125</v>
+        <v>715547.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>am-cvrp50</t>
+          <t>am-critic-cvrp50</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3.536347299814224</v>
+        <v>3.068769164383411</v>
       </c>
       <c r="E60" t="n">
-        <v>10.74872303009033</v>
+        <v>10.69631290435791</v>
       </c>
       <c r="F60" t="n">
-        <v>2170.132568359375</v>
+        <v>730929</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>am-cvrp50</t>
+          <t>am-critic-cvrp50</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_50_</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2.787703275680542</v>
+        <v>4.857148230075836</v>
       </c>
       <c r="E61" t="n">
-        <v>10.6656608581543</v>
+        <v>10.89768886566162</v>
       </c>
       <c r="F61" t="n">
-        <v>4306.31005859375</v>
+        <v>18029.203125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>am-cvrp50</t>
+          <t>am-critic-cvrp50</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_50_num_augment_16_</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2.530661970376968</v>
+        <v>2.809187397360802</v>
       </c>
       <c r="E62" t="n">
-        <v>10.637526512146</v>
+        <v>10.66820907592773</v>
       </c>
       <c r="F62" t="n">
-        <v>8558.267578125</v>
+        <v>292060.6875</v>
       </c>
     </row>
     <row r="63">
@@ -2047,22 +2047,18 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>2.207280322909355</v>
+        <v>5.297597497701645</v>
       </c>
       <c r="E63" t="n">
-        <v>10.6021785736084</v>
+        <v>10.95026302337646</v>
       </c>
       <c r="F63" t="n">
-        <v>17134.826171875</v>
+        <v>813.77587890625</v>
       </c>
     </row>
     <row r="64">
@@ -2078,17 +2074,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1.980018243193626</v>
+        <v>4.307813197374344</v>
       </c>
       <c r="E64" t="n">
-        <v>10.57758140563965</v>
+        <v>10.8354549407959</v>
       </c>
       <c r="F64" t="n">
-        <v>34242.578125</v>
+        <v>1144.919189453125</v>
       </c>
     </row>
     <row r="65">
@@ -2104,17 +2100,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1.809544488787651</v>
+        <v>3.536347299814224</v>
       </c>
       <c r="E65" t="n">
-        <v>10.55922317504883</v>
+        <v>10.74872303009033</v>
       </c>
       <c r="F65" t="n">
-        <v>68512.140625</v>
+        <v>2170.132568359375</v>
       </c>
     </row>
     <row r="66">
@@ -2130,17 +2126,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1.694135181605816</v>
+        <v>2.787703275680542</v>
       </c>
       <c r="E66" t="n">
-        <v>10.54675674438477</v>
+        <v>10.6656608581543</v>
       </c>
       <c r="F66" t="n">
-        <v>137205.484375</v>
+        <v>4306.31005859375</v>
       </c>
     </row>
     <row r="67">
@@ -2156,17 +2152,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1.619748212397099</v>
+        <v>2.530661970376968</v>
       </c>
       <c r="E67" t="n">
-        <v>10.53872776031494</v>
+        <v>10.637526512146</v>
       </c>
       <c r="F67" t="n">
-        <v>274046.25</v>
+        <v>8558.267578125</v>
       </c>
     </row>
     <row r="68">
@@ -2182,17 +2178,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1.555254682898521</v>
+        <v>2.207280322909355</v>
       </c>
       <c r="E68" t="n">
-        <v>10.53169918060303</v>
+        <v>10.6021785736084</v>
       </c>
       <c r="F68" t="n">
-        <v>717070.625</v>
+        <v>17134.826171875</v>
       </c>
     </row>
     <row r="69">
@@ -2203,22 +2199,22 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2.959180064499378</v>
+        <v>1.980018243193626</v>
       </c>
       <c r="E69" t="n">
-        <v>10.68465614318848</v>
+        <v>10.57758140563965</v>
       </c>
       <c r="F69" t="n">
-        <v>4328.73779296875</v>
+        <v>34242.578125</v>
       </c>
     </row>
     <row r="70">
@@ -2229,22 +2225,22 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>4.797464236617088</v>
+        <v>1.809544488787651</v>
       </c>
       <c r="E70" t="n">
-        <v>10.89150333404541</v>
+        <v>10.55922317504883</v>
       </c>
       <c r="F70" t="n">
-        <v>1176.766479492188</v>
+        <v>68512.140625</v>
       </c>
     </row>
     <row r="71">
@@ -2255,22 +2251,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4.241811856627464</v>
+        <v>1.694135181605816</v>
       </c>
       <c r="E71" t="n">
-        <v>10.82803440093994</v>
+        <v>10.54675674438477</v>
       </c>
       <c r="F71" t="n">
-        <v>2224.711669921875</v>
+        <v>137205.484375</v>
       </c>
     </row>
     <row r="72">
@@ -2281,22 +2277,22 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3.813697025179863</v>
+        <v>1.619748212397099</v>
       </c>
       <c r="E72" t="n">
-        <v>10.77932929992676</v>
+        <v>10.53872776031494</v>
       </c>
       <c r="F72" t="n">
-        <v>4401.12353515625</v>
+        <v>274046.25</v>
       </c>
     </row>
     <row r="73">
@@ -2307,22 +2303,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3.478444367647171</v>
+        <v>1.555254682898521</v>
       </c>
       <c r="E73" t="n">
-        <v>10.74163246154785</v>
+        <v>10.53169918060303</v>
       </c>
       <c r="F73" t="n">
-        <v>8752.396484375</v>
+        <v>717070.625</v>
       </c>
     </row>
     <row r="74">
@@ -2333,22 +2329,22 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>3.198222443461418</v>
+        <v>2.959180064499378</v>
       </c>
       <c r="E74" t="n">
-        <v>10.71039199829102</v>
+        <v>10.68465614318848</v>
       </c>
       <c r="F74" t="n">
-        <v>17473.6015625</v>
+        <v>4328.73779296875</v>
       </c>
     </row>
     <row r="75">
@@ -2364,17 +2360,17 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2.958265133202076</v>
+        <v>4.797464236617088</v>
       </c>
       <c r="E75" t="n">
-        <v>10.6837100982666</v>
+        <v>10.89150333404541</v>
       </c>
       <c r="F75" t="n">
-        <v>34830.97265625</v>
+        <v>1176.766479492188</v>
       </c>
     </row>
     <row r="76">
@@ -2390,17 +2386,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2.753441780805588</v>
+        <v>4.241811856627464</v>
       </c>
       <c r="E76" t="n">
-        <v>10.66102313995361</v>
+        <v>10.82803440093994</v>
       </c>
       <c r="F76" t="n">
-        <v>69527.734375</v>
+        <v>2224.711669921875</v>
       </c>
     </row>
     <row r="77">
@@ -2416,17 +2412,17 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2.574914880096912</v>
+        <v>3.813697025179863</v>
       </c>
       <c r="E77" t="n">
-        <v>10.64140701293945</v>
+        <v>10.77932929992676</v>
       </c>
       <c r="F77" t="n">
-        <v>138908.90625</v>
+        <v>4401.12353515625</v>
       </c>
     </row>
     <row r="78">
@@ -2442,17 +2438,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2.413231506943703</v>
+        <v>3.478444367647171</v>
       </c>
       <c r="E78" t="n">
-        <v>10.62374782562256</v>
+        <v>10.74163246154785</v>
       </c>
       <c r="F78" t="n">
-        <v>277171.9375</v>
+        <v>8752.396484375</v>
       </c>
     </row>
     <row r="79">
@@ -2468,17 +2464,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2.221604622900486</v>
+        <v>3.198222443461418</v>
       </c>
       <c r="E79" t="n">
-        <v>10.6027250289917</v>
+        <v>10.71039199829102</v>
       </c>
       <c r="F79" t="n">
-        <v>731314.9375</v>
+        <v>17473.6015625</v>
       </c>
     </row>
     <row r="80">
@@ -2489,22 +2485,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>num_starts_50_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3.387413546442986</v>
+        <v>2.958265133202076</v>
       </c>
       <c r="E80" t="n">
-        <v>10.73151111602783</v>
+        <v>10.6837100982666</v>
       </c>
       <c r="F80" t="n">
-        <v>18059.1796875</v>
+        <v>34830.97265625</v>
       </c>
     </row>
     <row r="81">
@@ -2515,22 +2511,22 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2.016606740653515</v>
+        <v>2.753441780805588</v>
       </c>
       <c r="E81" t="n">
-        <v>10.58130168914795</v>
+        <v>10.66102313995361</v>
       </c>
       <c r="F81" t="n">
-        <v>146582.703125</v>
+        <v>69527.734375</v>
       </c>
     </row>
     <row r="82">
@@ -2541,22 +2537,22 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2.835183776915073</v>
+        <v>2.574914880096912</v>
       </c>
       <c r="E82" t="n">
-        <v>10.6704797744751</v>
+        <v>10.64140701293945</v>
       </c>
       <c r="F82" t="n">
-        <v>36322.046875</v>
+        <v>138908.90625</v>
       </c>
     </row>
     <row r="83">
@@ -2567,22 +2563,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2.366060204803944</v>
+        <v>2.413231506943703</v>
       </c>
       <c r="E83" t="n">
-        <v>10.61928272247314</v>
+        <v>10.62374782562256</v>
       </c>
       <c r="F83" t="n">
-        <v>73239.078125</v>
+        <v>277171.9375</v>
       </c>
     </row>
     <row r="84">
@@ -2593,22 +2589,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1.912985183298588</v>
+        <v>2.221604622900486</v>
       </c>
       <c r="E84" t="n">
-        <v>10.57016849517822</v>
+        <v>10.6027250289917</v>
       </c>
       <c r="F84" t="n">
-        <v>146286.1875</v>
+        <v>731314.9375</v>
       </c>
     </row>
     <row r="85">
@@ -2619,148 +2615,152 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_16_</t>
+          <t>num_starts_50_</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1.728062704205513</v>
+        <v>3.387413546442986</v>
       </c>
       <c r="E85" t="n">
-        <v>10.55018711090088</v>
+        <v>10.73151111602783</v>
       </c>
       <c r="F85" t="n">
-        <v>292064.5</v>
+        <v>18059.1796875</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>pomo-cvrp50</t>
+          <t>am-cvrp50</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
       <c r="D86" t="n">
-        <v>3.991958126425743</v>
+        <v>2.016606740653515</v>
       </c>
       <c r="E86" t="n">
-        <v>10.80003261566162</v>
+        <v>10.58130168914795</v>
       </c>
       <c r="F86" t="n">
-        <v>1098.502197265625</v>
+        <v>146582.703125</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>pomo-cvrp50</t>
+          <t>am-cvrp50</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_starts_50_num_augment_2_</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>3.281456977128983</v>
+        <v>2.835183776915073</v>
       </c>
       <c r="E87" t="n">
-        <v>10.72003936767578</v>
+        <v>10.6704797744751</v>
       </c>
       <c r="F87" t="n">
-        <v>1745.0322265625</v>
+        <v>36322.046875</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>pomo-cvrp50</t>
+          <t>am-cvrp50</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>num_starts_50_num_augment_4_</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2.740717120468616</v>
+        <v>2.366060204803944</v>
       </c>
       <c r="E88" t="n">
-        <v>10.66011524200439</v>
+        <v>10.61928272247314</v>
       </c>
       <c r="F88" t="n">
-        <v>3388.26025390625</v>
+        <v>73239.078125</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>pomo-cvrp50</t>
+          <t>am-cvrp50</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_50_num_augment_8_</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2.368070743978024</v>
+        <v>1.912985183298588</v>
       </c>
       <c r="E89" t="n">
-        <v>10.61936569213867</v>
+        <v>10.57016849517822</v>
       </c>
       <c r="F89" t="n">
-        <v>6727.966796875</v>
+        <v>146286.1875</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>pomo-cvrp50</t>
+          <t>am-cvrp50</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_50_num_augment_16_</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2.194241993129253</v>
+        <v>1.728062704205513</v>
       </c>
       <c r="E90" t="n">
-        <v>10.60047912597656</v>
+        <v>10.55018711090088</v>
       </c>
       <c r="F90" t="n">
-        <v>13496.6875</v>
+        <v>292064.5</v>
       </c>
     </row>
     <row r="91">
@@ -2771,22 +2771,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>2.0429827272892</v>
+        <v>3.991958126425743</v>
       </c>
       <c r="E91" t="n">
-        <v>10.58400344848633</v>
+        <v>10.80003261566162</v>
       </c>
       <c r="F91" t="n">
-        <v>26927.12109375</v>
+        <v>1098.502197265625</v>
       </c>
     </row>
     <row r="92">
@@ -2802,17 +2798,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.93144753575325</v>
+        <v>3.281456977128983</v>
       </c>
       <c r="E92" t="n">
-        <v>10.57184886932373</v>
+        <v>10.72003936767578</v>
       </c>
       <c r="F92" t="n">
-        <v>53679.63671875</v>
+        <v>1745.0322265625</v>
       </c>
     </row>
     <row r="93">
@@ -2828,17 +2824,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.856752298772335</v>
+        <v>2.740717120468616</v>
       </c>
       <c r="E93" t="n">
-        <v>10.56392192840576</v>
+        <v>10.66011524200439</v>
       </c>
       <c r="F93" t="n">
-        <v>107171.2890625</v>
+        <v>3388.26025390625</v>
       </c>
     </row>
     <row r="94">
@@ -2854,17 +2850,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.802981086075306</v>
+        <v>2.368070743978024</v>
       </c>
       <c r="E94" t="n">
-        <v>10.55813598632812</v>
+        <v>10.61936569213867</v>
       </c>
       <c r="F94" t="n">
-        <v>213459.359375</v>
+        <v>6727.966796875</v>
       </c>
     </row>
     <row r="95">
@@ -2880,17 +2876,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.758852787315845</v>
+        <v>2.194241993129253</v>
       </c>
       <c r="E95" t="n">
-        <v>10.55335807800293</v>
+        <v>10.60047912597656</v>
       </c>
       <c r="F95" t="n">
-        <v>425941.15625</v>
+        <v>13496.6875</v>
       </c>
     </row>
     <row r="96">
@@ -2906,17 +2902,17 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.715993694961071</v>
+        <v>2.0429827272892</v>
       </c>
       <c r="E96" t="n">
-        <v>10.5487642288208</v>
+        <v>10.58400344848633</v>
       </c>
       <c r="F96" t="n">
-        <v>1092042</v>
+        <v>26927.12109375</v>
       </c>
     </row>
     <row r="97">
@@ -2927,22 +2923,22 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>2.411966025829315</v>
+        <v>1.93144753575325</v>
       </c>
       <c r="E97" t="n">
-        <v>10.62386322021484</v>
+        <v>10.57184886932373</v>
       </c>
       <c r="F97" t="n">
-        <v>6728.830078125</v>
+        <v>53679.63671875</v>
       </c>
     </row>
     <row r="98">
@@ -2953,22 +2949,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>3.592197224497795</v>
+        <v>1.856752298772335</v>
       </c>
       <c r="E98" t="n">
-        <v>10.75434875488281</v>
+        <v>10.56392192840576</v>
       </c>
       <c r="F98" t="n">
-        <v>1769.74951171875</v>
+        <v>107171.2890625</v>
       </c>
     </row>
     <row r="99">
@@ -2979,22 +2975,22 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>3.156271204352379</v>
+        <v>1.802981086075306</v>
       </c>
       <c r="E99" t="n">
-        <v>10.70566368103027</v>
+        <v>10.55813598632812</v>
       </c>
       <c r="F99" t="n">
-        <v>3422.046142578125</v>
+        <v>213459.359375</v>
       </c>
     </row>
     <row r="100">
@@ -3005,22 +3001,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2.831947989761829</v>
+        <v>1.758852787315845</v>
       </c>
       <c r="E100" t="n">
-        <v>10.66955661773682</v>
+        <v>10.55335807800293</v>
       </c>
       <c r="F100" t="n">
-        <v>6787.2509765625</v>
+        <v>425941.15625</v>
       </c>
     </row>
     <row r="101">
@@ -3031,22 +3027,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2.562437765300274</v>
+        <v>1.715993694961071</v>
       </c>
       <c r="E101" t="n">
-        <v>10.6399507522583</v>
+        <v>10.5487642288208</v>
       </c>
       <c r="F101" t="n">
-        <v>13548.74609375</v>
+        <v>1092042</v>
       </c>
     </row>
     <row r="102">
@@ -3057,22 +3053,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>2.353793382644653</v>
+        <v>2.411966025829315</v>
       </c>
       <c r="E102" t="n">
-        <v>10.61709022521973</v>
+        <v>10.62386322021484</v>
       </c>
       <c r="F102" t="n">
-        <v>27118.431640625</v>
+        <v>6728.830078125</v>
       </c>
     </row>
     <row r="103">
@@ -3088,17 +3084,17 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>2.168349921703339</v>
+        <v>3.592197224497795</v>
       </c>
       <c r="E103" t="n">
-        <v>10.59685325622559</v>
+        <v>10.75434875488281</v>
       </c>
       <c r="F103" t="n">
-        <v>54264.2734375</v>
+        <v>1769.74951171875</v>
       </c>
     </row>
     <row r="104">
@@ -3114,17 +3110,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>2.027232386171818</v>
+        <v>3.156271204352379</v>
       </c>
       <c r="E104" t="n">
-        <v>10.58151245117188</v>
+        <v>10.70566368103027</v>
       </c>
       <c r="F104" t="n">
-        <v>107919.984375</v>
+        <v>3422.046142578125</v>
       </c>
     </row>
     <row r="105">
@@ -3140,17 +3136,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.889806427061558</v>
+        <v>2.831947989761829</v>
       </c>
       <c r="E105" t="n">
-        <v>10.56663131713867</v>
+        <v>10.66955661773682</v>
       </c>
       <c r="F105" t="n">
-        <v>215535.875</v>
+        <v>6787.2509765625</v>
       </c>
     </row>
     <row r="106">
@@ -3166,17 +3162,17 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1.768693514168262</v>
+        <v>2.562437765300274</v>
       </c>
       <c r="E106" t="n">
-        <v>10.55357265472412</v>
+        <v>10.6399507522583</v>
       </c>
       <c r="F106" t="n">
-        <v>431058.59375</v>
+        <v>13548.74609375</v>
       </c>
     </row>
     <row r="107">
@@ -3192,17 +3188,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1.635707542300224</v>
+        <v>2.353793382644653</v>
       </c>
       <c r="E107" t="n">
-        <v>10.5391902923584</v>
+        <v>10.61709022521973</v>
       </c>
       <c r="F107" t="n">
-        <v>1108937.625</v>
+        <v>27118.431640625</v>
       </c>
     </row>
     <row r="108">
@@ -3213,22 +3209,22 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>num_starts_50_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2.040024287998676</v>
+        <v>2.168349921703339</v>
       </c>
       <c r="E108" t="n">
-        <v>10.58284950256348</v>
+        <v>10.59685325622559</v>
       </c>
       <c r="F108" t="n">
-        <v>18252.71484375</v>
+        <v>54264.2734375</v>
       </c>
     </row>
     <row r="109">
@@ -3239,22 +3235,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1.220237091183662</v>
+        <v>2.027232386171818</v>
       </c>
       <c r="E109" t="n">
-        <v>10.49505043029785</v>
+        <v>10.58151245117188</v>
       </c>
       <c r="F109" t="n">
-        <v>147371.546875</v>
+        <v>107919.984375</v>
       </c>
     </row>
     <row r="110">
@@ -3265,22 +3261,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1.6664644703269</v>
+        <v>1.889806427061558</v>
       </c>
       <c r="E110" t="n">
-        <v>10.5425500869751</v>
+        <v>10.56663131713867</v>
       </c>
       <c r="F110" t="n">
-        <v>36718.578125</v>
+        <v>215535.875</v>
       </c>
     </row>
     <row r="111">
@@ -3291,22 +3287,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1.399452239274979</v>
+        <v>1.768693514168262</v>
       </c>
       <c r="E111" t="n">
-        <v>10.51409912109375</v>
+        <v>10.55357265472412</v>
       </c>
       <c r="F111" t="n">
-        <v>74022.25</v>
+        <v>431058.59375</v>
       </c>
     </row>
     <row r="112">
@@ -3317,22 +3313,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1.198793575167656</v>
+        <v>1.635707542300224</v>
       </c>
       <c r="E112" t="n">
-        <v>10.49282360076904</v>
+        <v>10.5391902923584</v>
       </c>
       <c r="F112" t="n">
-        <v>147372.921875</v>
+        <v>1108937.625</v>
       </c>
     </row>
     <row r="113">
@@ -3343,148 +3339,152 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>greedy_multistart</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_16_</t>
+          <t>num_starts_50_</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1.10674137249589</v>
+        <v>2.040024287998676</v>
       </c>
       <c r="E113" t="n">
-        <v>10.48308658599854</v>
+        <v>10.58284950256348</v>
       </c>
       <c r="F113" t="n">
-        <v>294136.8125</v>
+        <v>18252.71484375</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>am-cvrp50-sm-xl</t>
+          <t>pomo-cvrp50</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>greedy</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
       <c r="D114" t="n">
-        <v>4.657119885087013</v>
+        <v>1.220237091183662</v>
       </c>
       <c r="E114" t="n">
-        <v>10.87536430358887</v>
+        <v>10.49505043029785</v>
       </c>
       <c r="F114" t="n">
-        <v>1096.267822265625</v>
+        <v>147371.546875</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>am-cvrp50-sm-xl</t>
+          <t>pomo-cvrp50</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>num_augment_2_</t>
+          <t>num_starts_50_num_augment_2_</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>3.78701277077198</v>
+        <v>1.6664644703269</v>
       </c>
       <c r="E115" t="n">
-        <v>10.77616691589355</v>
+        <v>10.5425500869751</v>
       </c>
       <c r="F115" t="n">
-        <v>1738.2861328125</v>
+        <v>36718.578125</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>am-cvrp50-sm-xl</t>
+          <t>pomo-cvrp50</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>num_augment_4_</t>
+          <t>num_starts_50_num_augment_4_</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>3.135449066758156</v>
+        <v>1.399452239274979</v>
       </c>
       <c r="E116" t="n">
-        <v>10.70316600799561</v>
+        <v>10.51409912109375</v>
       </c>
       <c r="F116" t="n">
-        <v>3366.25146484375</v>
+        <v>74022.25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>am-cvrp50-sm-xl</t>
+          <t>pomo-cvrp50</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>num_augment_8_</t>
+          <t>num_starts_50_num_augment_8_</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>2.606005780398846</v>
+        <v>1.198793575167656</v>
       </c>
       <c r="E117" t="n">
-        <v>10.64493179321289</v>
+        <v>10.49282360076904</v>
       </c>
       <c r="F117" t="n">
-        <v>6698.92724609375</v>
+        <v>147372.921875</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>am-cvrp50-sm-xl</t>
+          <t>pomo-cvrp50</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>augment</t>
+          <t>greedy_multistart_augment</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>num_augment_16_</t>
+          <t>num_starts_50_num_augment_16_</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2.395976521074772</v>
+        <v>1.10674137249589</v>
       </c>
       <c r="E118" t="n">
-        <v>10.62189483642578</v>
+        <v>10.48308658599854</v>
       </c>
       <c r="F118" t="n">
-        <v>13400.734375</v>
+        <v>294136.8125</v>
       </c>
     </row>
     <row r="119">
@@ -3495,22 +3495,18 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>augment</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>num_augment_32_</t>
-        </is>
-      </c>
+          <t>greedy</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>2.182561904191971</v>
+        <v>4.657119885087013</v>
       </c>
       <c r="E119" t="n">
-        <v>10.59863471984863</v>
+        <v>10.87536430358887</v>
       </c>
       <c r="F119" t="n">
-        <v>26836.478515625</v>
+        <v>1096.267822265625</v>
       </c>
     </row>
     <row r="120">
@@ -3526,17 +3522,17 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>num_augment_64_</t>
+          <t>num_augment_2_</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>2.020993828773499</v>
+        <v>3.78701277077198</v>
       </c>
       <c r="E120" t="n">
-        <v>10.58123588562012</v>
+        <v>10.77616691589355</v>
       </c>
       <c r="F120" t="n">
-        <v>53588.765625</v>
+        <v>1738.2861328125</v>
       </c>
     </row>
     <row r="121">
@@ -3552,17 +3548,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>num_augment_128_</t>
+          <t>num_augment_4_</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1.909905113279819</v>
+        <v>3.135449066758156</v>
       </c>
       <c r="E121" t="n">
-        <v>10.56923770904541</v>
+        <v>10.70316600799561</v>
       </c>
       <c r="F121" t="n">
-        <v>107003.46875</v>
+        <v>3366.25146484375</v>
       </c>
     </row>
     <row r="122">
@@ -3578,17 +3574,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>num_augment_256_</t>
+          <t>num_augment_8_</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1.825361698865891</v>
+        <v>2.606005780398846</v>
       </c>
       <c r="E122" t="n">
-        <v>10.56019878387451</v>
+        <v>10.64493179321289</v>
       </c>
       <c r="F122" t="n">
-        <v>213561.703125</v>
+        <v>6698.92724609375</v>
       </c>
     </row>
     <row r="123">
@@ -3604,17 +3600,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>num_augment_512_</t>
+          <t>num_augment_16_</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>1.75995696336031</v>
+        <v>2.395976521074772</v>
       </c>
       <c r="E123" t="n">
-        <v>10.55313873291016</v>
+        <v>10.62189483642578</v>
       </c>
       <c r="F123" t="n">
-        <v>426466.375</v>
+        <v>13400.734375</v>
       </c>
     </row>
     <row r="124">
@@ -3630,17 +3626,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>num_augment_1280_</t>
+          <t>num_augment_32_</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1.693725399672985</v>
+        <v>2.182561904191971</v>
       </c>
       <c r="E124" t="n">
-        <v>10.54609298706055</v>
+        <v>10.59863471984863</v>
       </c>
       <c r="F124" t="n">
-        <v>1092584.75</v>
+        <v>26836.478515625</v>
       </c>
     </row>
     <row r="125">
@@ -3651,22 +3647,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>augment_dihedral_8</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>num_augment_8_force_dihedral_True_</t>
+          <t>num_augment_64_</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>2.693797834217548</v>
+        <v>2.020993828773499</v>
       </c>
       <c r="E125" t="n">
-        <v>10.6542387008667</v>
+        <v>10.58123588562012</v>
       </c>
       <c r="F125" t="n">
-        <v>6719.7236328125</v>
+        <v>53588.765625</v>
       </c>
     </row>
     <row r="126">
@@ -3677,22 +3673,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>samples_2_softmax_temp_1.0_</t>
+          <t>num_augment_128_</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>4.237353801727295</v>
+        <v>1.909905113279819</v>
       </c>
       <c r="E126" t="n">
-        <v>10.82687854766846</v>
+        <v>10.56923770904541</v>
       </c>
       <c r="F126" t="n">
-        <v>1763.1630859375</v>
+        <v>107003.46875</v>
       </c>
     </row>
     <row r="127">
@@ -3703,22 +3699,22 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>samples_4_softmax_temp_1.0_</t>
+          <t>num_augment_256_</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>3.78449410200119</v>
+        <v>1.825361698865891</v>
       </c>
       <c r="E127" t="n">
-        <v>10.77550983428955</v>
+        <v>10.56019878387451</v>
       </c>
       <c r="F127" t="n">
-        <v>3412.074462890625</v>
+        <v>213561.703125</v>
       </c>
     </row>
     <row r="128">
@@ -3729,22 +3725,22 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>samples_8_softmax_temp_1.0_</t>
+          <t>num_augment_512_</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>3.441345691680908</v>
+        <v>1.75995696336031</v>
       </c>
       <c r="E128" t="n">
-        <v>10.73697376251221</v>
+        <v>10.55313873291016</v>
       </c>
       <c r="F128" t="n">
-        <v>6777.05712890625</v>
+        <v>426466.375</v>
       </c>
     </row>
     <row r="129">
@@ -3755,22 +3751,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>samples_16_softmax_temp_1.0_</t>
+          <t>num_augment_1280_</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>3.168591856956482</v>
+        <v>1.693725399672985</v>
       </c>
       <c r="E129" t="n">
-        <v>10.70645523071289</v>
+        <v>10.54609298706055</v>
       </c>
       <c r="F129" t="n">
-        <v>13520.61328125</v>
+        <v>1092584.75</v>
       </c>
     </row>
     <row r="130">
@@ -3781,22 +3777,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>sampling</t>
+          <t>augment_dihedral_8</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>samples_32_softmax_temp_1.0_</t>
+          <t>num_augment_8_force_dihedral_True_</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2.946657128632069</v>
+        <v>2.693797834217548</v>
       </c>
       <c r="E130" t="n">
-        <v>10.68191909790039</v>
+        <v>10.6542387008667</v>
       </c>
       <c r="F130" t="n">
-        <v>27048.099609375</v>
+        <v>6719.7236328125</v>
       </c>
     </row>
     <row r="131">
@@ -3812,17 +3808,17 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>samples_64_softmax_temp_1.0_</t>
+          <t>samples_2_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>2.738700807094574</v>
+        <v>4.237353801727295</v>
       </c>
       <c r="E131" t="n">
-        <v>10.65868759155273</v>
+        <v>10.82687854766846</v>
       </c>
       <c r="F131" t="n">
-        <v>53897.89453125</v>
+        <v>1763.1630859375</v>
       </c>
     </row>
     <row r="132">
@@ -3838,17 +3834,17 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>samples_128_softmax_temp_1.0_</t>
+          <t>samples_4_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>2.564884349703789</v>
+        <v>3.78449410200119</v>
       </c>
       <c r="E132" t="n">
-        <v>10.63969135284424</v>
+        <v>10.77550983428955</v>
       </c>
       <c r="F132" t="n">
-        <v>107580.3359375</v>
+        <v>3412.074462890625</v>
       </c>
     </row>
     <row r="133">
@@ -3864,17 +3860,17 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>samples_256_softmax_temp_1.0_</t>
+          <t>samples_8_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2.423936873674393</v>
+        <v>3.441345691680908</v>
       </c>
       <c r="E133" t="n">
-        <v>10.62421417236328</v>
+        <v>10.73697376251221</v>
       </c>
       <c r="F133" t="n">
-        <v>214862.34375</v>
+        <v>6777.05712890625</v>
       </c>
     </row>
     <row r="134">
@@ -3890,17 +3886,17 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>samples_512_softmax_temp_1.0_</t>
+          <t>samples_16_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>2.28088553994894</v>
+        <v>3.168591856956482</v>
       </c>
       <c r="E134" t="n">
-        <v>10.60855197906494</v>
+        <v>10.70645523071289</v>
       </c>
       <c r="F134" t="n">
-        <v>429160.46875</v>
+        <v>13520.61328125</v>
       </c>
     </row>
     <row r="135">
@@ -3916,17 +3912,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>samples_1280_softmax_temp_1.0_</t>
+          <t>samples_32_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>2.129419334232807</v>
+        <v>2.946657128632069</v>
       </c>
       <c r="E135" t="n">
-        <v>10.59217834472656</v>
+        <v>10.68191909790039</v>
       </c>
       <c r="F135" t="n">
-        <v>1102557.75</v>
+        <v>27048.099609375</v>
       </c>
     </row>
     <row r="136">
@@ -3937,22 +3933,22 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>greedy_multistart</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>num_starts_50_</t>
+          <t>samples_64_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>3.135523572564125</v>
+        <v>2.738700807094574</v>
       </c>
       <c r="E136" t="n">
-        <v>10.70261383056641</v>
+        <v>10.65868759155273</v>
       </c>
       <c r="F136" t="n">
-        <v>18254.248046875</v>
+        <v>53897.89453125</v>
       </c>
     </row>
     <row r="137">
@@ -3963,22 +3959,22 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment_dihedral_8</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_8_force_dihedral_True_</t>
+          <t>samples_128_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1.940479129552841</v>
+        <v>2.564884349703789</v>
       </c>
       <c r="E137" t="n">
-        <v>10.57218551635742</v>
+        <v>10.63969135284424</v>
       </c>
       <c r="F137" t="n">
-        <v>147574.125</v>
+        <v>107580.3359375</v>
       </c>
     </row>
     <row r="138">
@@ -3989,22 +3985,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_2_</t>
+          <t>samples_256_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>2.617157623171806</v>
+        <v>2.423936873674393</v>
       </c>
       <c r="E138" t="n">
-        <v>10.64564037322998</v>
+        <v>10.62421417236328</v>
       </c>
       <c r="F138" t="n">
-        <v>36633.19140625</v>
+        <v>214862.34375</v>
       </c>
     </row>
     <row r="139">
@@ -4015,22 +4011,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_4_</t>
+          <t>samples_512_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2.216046489775181</v>
+        <v>2.28088553994894</v>
       </c>
       <c r="E139" t="n">
-        <v>10.60188674926758</v>
+        <v>10.60855197906494</v>
       </c>
       <c r="F139" t="n">
-        <v>73894.3828125</v>
+        <v>429160.46875</v>
       </c>
     </row>
     <row r="140">
@@ -4041,22 +4037,22 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>greedy_multistart_augment</t>
+          <t>sampling</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>num_starts_50_num_augment_8_</t>
+          <t>samples_1280_softmax_temp_1.0_</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1.881713606417179</v>
+        <v>2.129419334232807</v>
       </c>
       <c r="E140" t="n">
-        <v>10.56583786010742</v>
+        <v>10.59217834472656</v>
       </c>
       <c r="F140" t="n">
-        <v>147547.703125</v>
+        <v>1102557.75</v>
       </c>
     </row>
     <row r="141">
@@ -4067,21 +4063,151 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
+          <t>greedy_multistart</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>num_starts_50_</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>3.135523572564125</v>
+      </c>
+      <c r="E141" t="n">
+        <v>10.70261383056641</v>
+      </c>
+      <c r="F141" t="n">
+        <v>18254.248046875</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>am-cvrp50-sm-xl</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment_dihedral_8</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_8_force_dihedral_True_</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>1.940479129552841</v>
+      </c>
+      <c r="E142" t="n">
+        <v>10.57218551635742</v>
+      </c>
+      <c r="F142" t="n">
+        <v>147574.125</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>am-cvrp50-sm-xl</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
           <t>greedy_multistart_augment</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_2_</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>2.617157623171806</v>
+      </c>
+      <c r="E143" t="n">
+        <v>10.64564037322998</v>
+      </c>
+      <c r="F143" t="n">
+        <v>36633.19140625</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>am-cvrp50-sm-xl</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_4_</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>2.216046489775181</v>
+      </c>
+      <c r="E144" t="n">
+        <v>10.60188674926758</v>
+      </c>
+      <c r="F144" t="n">
+        <v>73894.3828125</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>am-cvrp50-sm-xl</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>num_starts_50_num_augment_8_</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>1.881713606417179</v>
+      </c>
+      <c r="E145" t="n">
+        <v>10.56583786010742</v>
+      </c>
+      <c r="F145" t="n">
+        <v>147547.703125</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>am-cvrp50-sm-xl</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>greedy_multistart_augment</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
         <is>
           <t>num_starts_50_num_augment_16_</t>
         </is>
       </c>
-      <c r="D141" t="n">
+      <c r="D146" t="n">
         <v>1.733677089214325</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E146" t="n">
         <v>10.54995536804199</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F146" t="n">
         <v>294145.59375</v>
       </c>
     </row>
